--- a/public/Report/SalesData.xlsx
+++ b/public/Report/SalesData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Order ID</t>
   </si>
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -492,86 +492,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
